--- a/RDFsim/measurements/measurements.xlsx
+++ b/RDFsim/measurements/measurements.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="moviesGRAPHS" localSheetId="2">Sheet3!$A$2:$D$12</definedName>
     <definedName name="moviesIndexing" localSheetId="0">Sheet1!$A$105:$D$205</definedName>
     <definedName name="moviesIndexing_1" localSheetId="0">Sheet1!$A$3:$D$103</definedName>
     <definedName name="moviesTOPK" localSheetId="1">Sheet2!$A$3:$F$1201</definedName>
@@ -31,7 +33,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="moviesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="moviesGRAPHS" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\tmp\moviesGRAPHS.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="moviesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesIndexing.txt" comma="1" semicolon="1">
       <textFields count="3">
         <textField/>
@@ -40,7 +52,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="moviesIndexing1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="moviesIndexing1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -49,7 +61,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="moviesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="moviesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -59,7 +71,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="philosophersIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="philosophersIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\philosophersIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -68,7 +80,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="philosophersTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" name="philosophersTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\philosophersTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -78,7 +90,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="programmingLangsIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" name="programmingLangsIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\programmingLangsIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -87,7 +99,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="videoGamesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" name="videoGamesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\videoGamesIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -96,7 +108,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="videoGamesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" name="videoGamesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\videoGamesTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -110,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7672" uniqueCount="2670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="2673">
   <si>
     <t>Movies</t>
   </si>
@@ -8120,6 +8132,15 @@
   </si>
   <si>
     <t>http://dbpedia.org/resource/D/Generation</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Wedding_Cha_Shinema</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Morning_After_(1986_film)</t>
+  </si>
+  <si>
+    <t>GRAPHS</t>
   </si>
 </sst>
 </file>
@@ -8159,7 +8180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8184,6 +8205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8198,7 +8225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -8207,6 +8234,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8226,35 +8255,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesIndexing" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersIndexing" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsIndexing" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesIndexing" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersIndexing" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsIndexing" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesGRAPHS" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8522,8 +8555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:A136"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8531,7 +8564,7 @@
     <col min="1" max="1" width="92.140625" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="59.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -12817,28 +12850,28 @@
       <c r="P108" s="1"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="G109" s="4"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B110">
@@ -12855,7 +12888,7 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B111">
@@ -12872,7 +12905,7 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B112">
@@ -12889,7 +12922,7 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B113">
@@ -12906,14 +12939,14 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
@@ -12936,7 +12969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -54894,4 +54927,169 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.06</v>
+      </c>
+      <c r="C3">
+        <v>0.11</v>
+      </c>
+      <c r="D3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>0.45</v>
+      </c>
+      <c r="D4">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>1.29</v>
+      </c>
+      <c r="D5">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>1.59</v>
+      </c>
+      <c r="D6">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.37</v>
+      </c>
+      <c r="C9">
+        <v>0.53</v>
+      </c>
+      <c r="D9">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.39</v>
+      </c>
+      <c r="C10">
+        <v>1.97</v>
+      </c>
+      <c r="D10">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.37</v>
+      </c>
+      <c r="C11">
+        <v>2.6</v>
+      </c>
+      <c r="D11">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.37</v>
+      </c>
+      <c r="C12">
+        <v>3.42</v>
+      </c>
+      <c r="D12">
+        <v>45.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RDFsim/measurements/measurements.xlsx
+++ b/RDFsim/measurements/measurements.xlsx
@@ -7,20 +7,26 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Indexing-Datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="Embeddings(Random)" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="5" r:id="rId3"/>
+    <sheet name="Embeddings(Selected)" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="moviesGRAPHS" localSheetId="2">Sheet3!$A$2:$D$12</definedName>
-    <definedName name="moviesIndexing" localSheetId="0">Sheet1!$A$105:$D$205</definedName>
-    <definedName name="moviesIndexing_1" localSheetId="0">Sheet1!$A$3:$D$103</definedName>
-    <definedName name="moviesTOPK" localSheetId="1">Sheet2!$A$3:$F$1201</definedName>
-    <definedName name="philosophersIndexing" localSheetId="0">Sheet1!$E$3:$G$103</definedName>
-    <definedName name="philosophersTOPK" localSheetId="1">Sheet2!$G$3:$K$1201</definedName>
-    <definedName name="programmingLangsIndexing" localSheetId="0">Sheet1!$M$3:$O$103</definedName>
-    <definedName name="videoGamesIndexing" localSheetId="0">Sheet1!$I$3:$L$103</definedName>
-    <definedName name="videoGamesTOPK" localSheetId="1">Sheet2!$L$3:$Q$1201</definedName>
+    <definedName name="graphMeasurements" localSheetId="2">Graphs!$A$1:$E$130</definedName>
+    <definedName name="moviesGRAPHS" localSheetId="2">Graphs!$A$2:$D$12</definedName>
+    <definedName name="moviesIndexing" localSheetId="0">'Indexing-Datasets'!$A$105:$D$205</definedName>
+    <definedName name="moviesIndexing_1" localSheetId="0">'Indexing-Datasets'!$A$3:$D$103</definedName>
+    <definedName name="moviesTOPK" localSheetId="1">'Embeddings(Random)'!$A$3:$F$1201</definedName>
+    <definedName name="moviesTOPK" localSheetId="3">'Embeddings(Selected)'!$A$3:$D$37</definedName>
+    <definedName name="philosophersIndexing" localSheetId="0">'Indexing-Datasets'!$E$3:$G$103</definedName>
+    <definedName name="philosophersTOPK" localSheetId="1">'Embeddings(Random)'!$G$3:$K$1201</definedName>
+    <definedName name="philosophersTOPK" localSheetId="3">'Embeddings(Selected)'!$P$3:$S$61</definedName>
+    <definedName name="programmingLangsIndexing" localSheetId="0">'Indexing-Datasets'!$M$3:$O$103</definedName>
+    <definedName name="programmingLangsTOPK" localSheetId="3">'Embeddings(Selected)'!$K$3:$N$61</definedName>
+    <definedName name="videoGamesIndexing" localSheetId="0">'Indexing-Datasets'!$I$3:$L$103</definedName>
+    <definedName name="videoGamesTOPK" localSheetId="1">'Embeddings(Random)'!$L$3:$Q$1201</definedName>
+    <definedName name="videoGamesTOPK" localSheetId="3">'Embeddings(Selected)'!$F$3:$I$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +39,18 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="moviesGRAPHS" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="graphMeasurements" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\tmp\graphMeasurements.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="moviesGRAPHS" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesGRAPHS.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -43,7 +60,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="moviesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="moviesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesIndexing.txt" comma="1" semicolon="1">
       <textFields count="3">
         <textField/>
@@ -52,7 +69,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="moviesIndexing1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="moviesIndexing1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -61,7 +78,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="moviesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="moviesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -71,7 +88,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="philosophersIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" name="moviesTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\tmp\moviesTOPK.txt" tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="philosophersIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\philosophersIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -80,7 +107,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="philosophersTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" name="philosophersTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\philosophersTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -90,7 +117,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="programmingLangsIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" name="philosophersTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\tmp\philosophersTOPK.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="programmingLangsIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\programmingLangsIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -99,7 +136,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="videoGamesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" name="programmingLangsTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\tmp\programmingLangsTOPK.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="videoGamesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\videoGamesIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -108,7 +155,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="videoGamesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" name="videoGamesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\tmp\videoGamesTOPK.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="videoGamesTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\videoGamesTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -122,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="2673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8108" uniqueCount="2814">
   <si>
     <t>Movies</t>
   </si>
@@ -8134,13 +8191,436 @@
     <t>http://dbpedia.org/resource/D/Generation</t>
   </si>
   <si>
-    <t>http://dbpedia.org/resource/Wedding_Cha_Shinema</t>
-  </si>
-  <si>
-    <t>http://dbpedia.org/resource/The_Morning_After_(1986_film)</t>
-  </si>
-  <si>
-    <t>GRAPHS</t>
+    <t>SELECTED EMBEDDINGS</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Avengers:_Endgame</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Avengers:_Infinity_War</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Avengers:_Age_of_Ultron</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Thor_(film)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Thor:_The_Dark_World</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Thor:_Ragnarok</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ant-Man_and_the_Wasp</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Guardians_of_the_Galaxy_Vol._2</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Spider-Man:_Far_From_Home</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ant-Man_(film)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Production_of_Avengers:_Infinity_War_and_Avengers:_Endgame</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Spider-Man:_No_Way_Home</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Spider-Man:_Homecoming</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Spider-Man:_Into_the_Spider-Verse</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Spider-Man_2</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Iron_Man_2</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Sony_Pictures_Universe_of_Marvel_Characters</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Spider-Man_(2002_film)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_The_Dark_Knight_Returns_(film)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Year_One_(film)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Under_the_Red_Hood</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Hush_(film)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Assault_on_Arkham</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Bad_Blood</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Gotham_by_Gaslight</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Dying_Is_Easy</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman_and_Harley_Quinn</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Soul_of_the_Dragon</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman_vs._Teenage_Mutant_Ninja_Turtles</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Last_of_Us</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Last_of_Us:_Left_Behind</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Last_of_Us_Part_II</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted_4:_A_Thief's_End</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Amy_Hennig</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted_2:_Among_Thieves</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/God_of_War_(2018_video_game)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted:_Golden_Abyss</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Neil_Druckmann</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Call_of_Duty:_Black_Ops_III</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Tetris</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Puzzle_League</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/List_of_Mario_puzzle_games</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/List_of_puzzle_video_games</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Dragon_Knight_(video_game_series)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Tile-matching_video_game</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Manchester_United_(video_game_series)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Mario_(franchise)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Wario_(series)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Columns_(video_game)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Password_(video_games)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pac-Man</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Dig_Dug</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pac-Mania</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pac-Land</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pole_Position</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pac-Man_Championship_Edition</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pac-Man_and_the_Ghostly_Adventures</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Galaxian</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pac_&amp;_Pal</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pac-Man_Championship_Edition_2</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted:_The_Lost_Legacy</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted_3:_Drake's_Deception</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted:_Drake's_Fortune</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Uncharted:_The_Nathan_Drake_Collection</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Death_Stranding</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Java_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/C/C++</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Python_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/C_Sharp_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Programming_language</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/C_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Cross-platform_software</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Object-oriented_programming</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Compiler</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Microsoft_Windows</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/JavaScript</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/ECMAScript</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/JSON</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/MacOS</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/JScript</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Eclipse_(software)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Tcl/Tk</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ruby_programming_language</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Objective-C++</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Tk_(computing)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/4GL</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/PAL-8</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/LibSDL</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Java_Micro_Edition</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Java_FX</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ruby_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Open-source_software</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Graphical_user_interface</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Reflective_programming</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/BASIC</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Scala_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Haskell_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Apache_Groovy</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Rust_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Erlang_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Join-calculus</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Covariance_and_contravariance_(computer_science)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Swift_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ada_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Java_Modeling_Language</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pythagoras</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Homer</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Diogenes</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Pliny_the_Elder</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Deity</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Olympiad</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ephesus</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/God</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Ionia</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Euripides</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Peloponnesian_War</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Egypt</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Orphism_(religion)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Stobaeus</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Hesiod</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Neopythagoreanism</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Thales_of_Miletus</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Samos</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Hippolytus_of_Rome</t>
+  </si>
+  <si>
+    <t>MOVIES GRAPHS</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Lovers_&amp;_Movies</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Penmani_Aval_Kanmani</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Let_My_Puppets_Come</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Batman:_Mask_of_the_Phantasm</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Public_Enemy_Number_One_(film)</t>
+  </si>
+  <si>
+    <t>PHILOSOPHERS GRAPHS</t>
+  </si>
+  <si>
+    <t>VIDEO GAMES GRAPHS</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Costume_Quest_2</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Hollow_Knight</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Excellent_Dizzy_Collection</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Superman_(arcade_game)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/EuroBasket_2015_Final</t>
+  </si>
+  <si>
+    <t>PROGRAMMING LANGShttp://dbpedia.org/resource/Tiny_BASIC</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/ActiveVFP</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Argus_(programming_language)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Haml</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Perl_package_manager</t>
   </si>
 </sst>
 </file>
@@ -8255,39 +8735,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersIndexing" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesGRAPHS" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsTOPK" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsIndexing" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesIndexing" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersIndexing" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsIndexing" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesIndexing" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesGRAPHS" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="graphMeasurements" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8555,7 +9055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
@@ -54931,27 +55431,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2670</v>
+        <v>2797</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -54962,66 +55463,81 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="C3">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="D3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+      <c r="E3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="C4">
-        <v>0.45</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D4">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.81</v>
+      </c>
+      <c r="E4">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="C5">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="D5">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10.25</v>
+      </c>
+      <c r="E5">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="C6">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="D6">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19.57</v>
+      </c>
+      <c r="E6">
+        <v>132.08000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2671</v>
+        <v>2798</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -55032,64 +55548,4268 @@
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C9">
-        <v>0.53</v>
+        <v>0.12</v>
       </c>
       <c r="D9">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+      <c r="E9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.39</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10">
-        <v>1.97</v>
+        <v>0.31</v>
       </c>
       <c r="D10">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+      <c r="E10">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>0.42</v>
       </c>
       <c r="D11">
-        <v>19.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.96</v>
+      </c>
+      <c r="E11">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
       <c r="B12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D12">
+        <v>3.72</v>
+      </c>
+      <c r="E12">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.08</v>
+      </c>
+      <c r="C15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.08</v>
+      </c>
+      <c r="C16">
+        <v>0.47</v>
+      </c>
+      <c r="D16">
+        <v>2.87</v>
+      </c>
+      <c r="E16">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.08</v>
+      </c>
+      <c r="C17">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D17">
+        <v>13.33</v>
+      </c>
+      <c r="E17">
+        <v>107.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.08</v>
+      </c>
+      <c r="C18">
+        <v>1.7</v>
+      </c>
+      <c r="D18">
+        <v>28.06</v>
+      </c>
+      <c r="E18">
+        <v>275.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.04</v>
+      </c>
+      <c r="C21">
+        <v>0.08</v>
+      </c>
+      <c r="D21">
+        <v>0.12</v>
+      </c>
+      <c r="E21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0.04</v>
+      </c>
+      <c r="C22">
+        <v>0.24</v>
+      </c>
+      <c r="D22">
+        <v>0.64</v>
+      </c>
+      <c r="E22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0.04</v>
+      </c>
+      <c r="C23">
+        <v>0.62</v>
+      </c>
+      <c r="D23">
+        <v>1.29</v>
+      </c>
+      <c r="E23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0.04</v>
+      </c>
+      <c r="C24">
+        <v>0.61</v>
+      </c>
+      <c r="D24">
+        <v>2.59</v>
+      </c>
+      <c r="E24">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.17</v>
+      </c>
+      <c r="C27">
+        <v>0.42</v>
+      </c>
+      <c r="D27">
+        <v>0.64</v>
+      </c>
+      <c r="E27">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.21</v>
+      </c>
+      <c r="C28">
+        <v>0.73</v>
+      </c>
+      <c r="D28">
+        <v>4.17</v>
+      </c>
+      <c r="E28">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0.18</v>
+      </c>
+      <c r="C29">
+        <v>0.97</v>
+      </c>
+      <c r="D29">
+        <v>9.84</v>
+      </c>
+      <c r="E29">
+        <v>63.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>0.16</v>
+      </c>
+      <c r="C30">
+        <v>1.52</v>
+      </c>
+      <c r="D30">
+        <v>24.6</v>
+      </c>
+      <c r="E30">
+        <v>150.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.01</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.01</v>
+      </c>
+      <c r="D39">
+        <v>0.02</v>
+      </c>
+      <c r="E39">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.01</v>
+      </c>
+      <c r="E43">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.02</v>
+      </c>
+      <c r="E44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.01</v>
+      </c>
+      <c r="D45">
+        <v>0.06</v>
+      </c>
+      <c r="E45">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.01</v>
+      </c>
+      <c r="E49">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.01</v>
+      </c>
+      <c r="D50">
+        <v>0.03</v>
+      </c>
+      <c r="E50">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.01</v>
+      </c>
+      <c r="D51">
+        <v>0.04</v>
+      </c>
+      <c r="E51">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.01</v>
+      </c>
+      <c r="D55">
+        <v>0.02</v>
+      </c>
+      <c r="E55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.01</v>
+      </c>
+      <c r="D56">
+        <v>0.04</v>
+      </c>
+      <c r="E56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.02</v>
+      </c>
+      <c r="D57">
+        <v>0.06</v>
+      </c>
+      <c r="E57">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.01</v>
+      </c>
+      <c r="E62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0.02</v>
+      </c>
+      <c r="E63">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0.04</v>
+      </c>
+      <c r="C69">
+        <v>0.09</v>
+      </c>
+      <c r="D69">
+        <v>0.08</v>
+      </c>
+      <c r="E69">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>0.04</v>
+      </c>
+      <c r="C70">
+        <v>0.22</v>
+      </c>
+      <c r="D70">
+        <v>0.59</v>
+      </c>
+      <c r="E70">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>0.04</v>
+      </c>
+      <c r="C71">
         <v>0.37</v>
       </c>
-      <c r="C12">
-        <v>3.42</v>
-      </c>
-      <c r="D12">
-        <v>45.62</v>
+      <c r="D71">
+        <v>1.98</v>
+      </c>
+      <c r="E71">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>0.04</v>
+      </c>
+      <c r="C72">
+        <v>0.53</v>
+      </c>
+      <c r="D72">
+        <v>3.7</v>
+      </c>
+      <c r="E72">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0.02</v>
+      </c>
+      <c r="C75">
+        <v>0.06</v>
+      </c>
+      <c r="D75">
+        <v>0.09</v>
+      </c>
+      <c r="E75">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>0.02</v>
+      </c>
+      <c r="C76">
+        <v>0.17</v>
+      </c>
+      <c r="D76">
+        <v>0.61</v>
+      </c>
+      <c r="E76">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>0.02</v>
+      </c>
+      <c r="C77">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D77">
+        <v>1.49</v>
+      </c>
+      <c r="E77">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>0.02</v>
+      </c>
+      <c r="C78">
+        <v>0.34</v>
+      </c>
+      <c r="D78">
+        <v>2.98</v>
+      </c>
+      <c r="E78">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>0.03</v>
+      </c>
+      <c r="C81">
+        <v>0.06</v>
+      </c>
+      <c r="D81">
+        <v>0.12</v>
+      </c>
+      <c r="E81">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>0.04</v>
+      </c>
+      <c r="C82">
+        <v>0.35</v>
+      </c>
+      <c r="D82">
+        <v>0.44</v>
+      </c>
+      <c r="E82">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>0.02</v>
+      </c>
+      <c r="C83">
+        <v>0.37</v>
+      </c>
+      <c r="D83">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E83">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>0.02</v>
+      </c>
+      <c r="C84">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D84">
+        <v>2.98</v>
+      </c>
+      <c r="E84">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C87">
+        <v>0.18</v>
+      </c>
+      <c r="D87">
+        <v>0.24</v>
+      </c>
+      <c r="E87">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>0.09</v>
+      </c>
+      <c r="C88">
+        <v>0.47</v>
+      </c>
+      <c r="D88">
+        <v>1.06</v>
+      </c>
+      <c r="E88">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>0.08</v>
+      </c>
+      <c r="C89">
+        <v>0.7</v>
+      </c>
+      <c r="D89">
+        <v>2.23</v>
+      </c>
+      <c r="E89">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>0.08</v>
+      </c>
+      <c r="C90">
+        <v>0.94</v>
+      </c>
+      <c r="D90">
+        <v>4.87</v>
+      </c>
+      <c r="E90">
+        <v>32.51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>0.01</v>
+      </c>
+      <c r="C93">
+        <v>0.04</v>
+      </c>
+      <c r="D93">
+        <v>0.03</v>
+      </c>
+      <c r="E93">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>0.03</v>
+      </c>
+      <c r="C94">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D94">
+        <v>0.24</v>
+      </c>
+      <c r="E94">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>0.02</v>
+      </c>
+      <c r="C95">
+        <v>0.09</v>
+      </c>
+      <c r="D95">
+        <v>0.48</v>
+      </c>
+      <c r="E95">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>0.02</v>
+      </c>
+      <c r="C96">
+        <v>0.12</v>
+      </c>
+      <c r="D96">
+        <v>0.71</v>
+      </c>
+      <c r="E96">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0.01</v>
+      </c>
+      <c r="D102">
+        <v>0.02</v>
+      </c>
+      <c r="E102">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0.01</v>
+      </c>
+      <c r="D103">
+        <v>0.04</v>
+      </c>
+      <c r="E103">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0.01</v>
+      </c>
+      <c r="D104">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E104">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0.01</v>
+      </c>
+      <c r="D108">
+        <v>0.02</v>
+      </c>
+      <c r="E108">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>10</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0.01</v>
+      </c>
+      <c r="D109">
+        <v>0.05</v>
+      </c>
+      <c r="E109">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0.02</v>
+      </c>
+      <c r="D110">
+        <v>0.1</v>
+      </c>
+      <c r="E110">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0.01</v>
+      </c>
+      <c r="D114">
+        <v>0.02</v>
+      </c>
+      <c r="E114">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>10</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0.01</v>
+      </c>
+      <c r="D115">
+        <v>0.04</v>
+      </c>
+      <c r="E115">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0.02</v>
+      </c>
+      <c r="D116">
+        <v>0.09</v>
+      </c>
+      <c r="E116">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0.02</v>
+      </c>
+      <c r="E120">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0.01</v>
+      </c>
+      <c r="D121">
+        <v>0.08</v>
+      </c>
+      <c r="E121">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0.01</v>
+      </c>
+      <c r="D122">
+        <v>0.15</v>
+      </c>
+      <c r="E122">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0.01</v>
+      </c>
+      <c r="D126">
+        <v>0.03</v>
+      </c>
+      <c r="E126">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>10</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0.01</v>
+      </c>
+      <c r="D127">
+        <v>0.05</v>
+      </c>
+      <c r="E127">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0.01</v>
+      </c>
+      <c r="D128">
+        <v>0.1</v>
+      </c>
+      <c r="E128">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S69"/>
+  <sheetViews>
+    <sheetView topLeftCell="J62" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="76" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="8" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4">
+        <v>880</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H4">
+        <v>74</v>
+      </c>
+      <c r="I4">
+        <v>0.63</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L4" t="s">
+        <v>428</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.61</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>492</v>
+      </c>
+      <c r="R4">
+        <v>3084</v>
+      </c>
+      <c r="S4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5">
+        <v>480</v>
+      </c>
+      <c r="D5">
+        <v>0.83</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5">
+        <v>124</v>
+      </c>
+      <c r="I5">
+        <v>0.59</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L5" t="s">
+        <v>492</v>
+      </c>
+      <c r="M5">
+        <v>2386</v>
+      </c>
+      <c r="N5">
+        <v>0.59</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>492</v>
+      </c>
+      <c r="R5">
+        <v>984</v>
+      </c>
+      <c r="S5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6">
+        <v>244</v>
+      </c>
+      <c r="D6">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G6" t="s">
+        <v>492</v>
+      </c>
+      <c r="H6">
+        <v>124</v>
+      </c>
+      <c r="I6">
+        <v>0.49</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" t="s">
+        <v>2740</v>
+      </c>
+      <c r="L6" t="s">
+        <v>492</v>
+      </c>
+      <c r="M6">
+        <v>1648</v>
+      </c>
+      <c r="N6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>492</v>
+      </c>
+      <c r="R6">
+        <v>586</v>
+      </c>
+      <c r="S6">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7">
+        <v>230</v>
+      </c>
+      <c r="D7">
+        <v>0.72</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>2704</v>
+      </c>
+      <c r="G7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7">
+        <v>94</v>
+      </c>
+      <c r="I7">
+        <v>0.47</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" t="s">
+        <v>2741</v>
+      </c>
+      <c r="L7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M7">
+        <v>1216</v>
+      </c>
+      <c r="N7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>492</v>
+      </c>
+      <c r="R7">
+        <v>810</v>
+      </c>
+      <c r="S7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8">
+        <v>302</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>2705</v>
+      </c>
+      <c r="G8" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>0.44</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" t="s">
+        <v>2742</v>
+      </c>
+      <c r="L8" t="s">
+        <v>492</v>
+      </c>
+      <c r="M8">
+        <v>2506</v>
+      </c>
+      <c r="N8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>492</v>
+      </c>
+      <c r="R8">
+        <v>304</v>
+      </c>
+      <c r="S8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9">
+        <v>218</v>
+      </c>
+      <c r="D9">
+        <v>0.69</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9">
+        <v>106</v>
+      </c>
+      <c r="I9">
+        <v>0.43</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" t="s">
+        <v>2743</v>
+      </c>
+      <c r="L9" t="s">
+        <v>492</v>
+      </c>
+      <c r="M9">
+        <v>1656</v>
+      </c>
+      <c r="N9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>428</v>
+      </c>
+      <c r="R9">
+        <v>50</v>
+      </c>
+      <c r="S9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10">
+        <v>254</v>
+      </c>
+      <c r="D10">
+        <v>0.68</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>0.42</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" t="s">
+        <v>428</v>
+      </c>
+      <c r="M10">
+        <v>392</v>
+      </c>
+      <c r="N10">
+        <v>0.53</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>428</v>
+      </c>
+      <c r="R10">
+        <v>173</v>
+      </c>
+      <c r="S10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11">
+        <v>310</v>
+      </c>
+      <c r="D11">
+        <v>0.68</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>0.42</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L11" t="s">
+        <v>492</v>
+      </c>
+      <c r="M11">
+        <v>874</v>
+      </c>
+      <c r="N11">
+        <v>0.52</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>492</v>
+      </c>
+      <c r="R11">
+        <v>710</v>
+      </c>
+      <c r="S11">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12">
+        <v>272</v>
+      </c>
+      <c r="D12">
+        <v>0.68</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G12" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12">
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <v>0.42</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" t="s">
+        <v>2745</v>
+      </c>
+      <c r="L12" t="s">
+        <v>492</v>
+      </c>
+      <c r="M12">
+        <v>576</v>
+      </c>
+      <c r="N12">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>428</v>
+      </c>
+      <c r="R12">
+        <v>158</v>
+      </c>
+      <c r="S12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0.68</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
+        <v>2710</v>
+      </c>
+      <c r="G13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H13">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>0.41</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" t="s">
+        <v>2746</v>
+      </c>
+      <c r="L13" t="s">
+        <v>492</v>
+      </c>
+      <c r="M13">
+        <v>1992</v>
+      </c>
+      <c r="N13">
+        <v>0.49</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" t="s">
+        <v>1641</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>428</v>
+      </c>
+      <c r="R13">
+        <v>114</v>
+      </c>
+      <c r="S13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8" t="s">
+        <v>2711</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="8" t="s">
+        <v>2747</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16">
+        <v>114</v>
+      </c>
+      <c r="D16">
+        <v>0.86</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G16" t="s">
+        <v>428</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="L16" t="s">
+        <v>492</v>
+      </c>
+      <c r="M16">
+        <v>348</v>
+      </c>
+      <c r="N16">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>492</v>
+      </c>
+      <c r="R16">
+        <v>468</v>
+      </c>
+      <c r="S16">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B17" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17">
+        <v>112</v>
+      </c>
+      <c r="D17">
+        <v>0.82</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
+        <v>2713</v>
+      </c>
+      <c r="G17" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0.48</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L17" t="s">
+        <v>492</v>
+      </c>
+      <c r="M17">
+        <v>1898</v>
+      </c>
+      <c r="N17">
+        <v>0.48</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>492</v>
+      </c>
+      <c r="R17">
+        <v>436</v>
+      </c>
+      <c r="S17">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>0.71</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" t="s">
+        <v>2714</v>
+      </c>
+      <c r="G18" t="s">
+        <v>492</v>
+      </c>
+      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>0.43</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" t="s">
+        <v>313</v>
+      </c>
+      <c r="L18" t="s">
+        <v>492</v>
+      </c>
+      <c r="M18">
+        <v>1404</v>
+      </c>
+      <c r="N18">
+        <v>0.46</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>492</v>
+      </c>
+      <c r="R18">
+        <v>3084</v>
+      </c>
+      <c r="S18">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>0.67</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G19" t="s">
+        <v>428</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.39</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L19" t="s">
+        <v>492</v>
+      </c>
+      <c r="M19">
+        <v>1724</v>
+      </c>
+      <c r="N19">
+        <v>0.46</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>492</v>
+      </c>
+      <c r="R19">
+        <v>1578</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>913</v>
+      </c>
+      <c r="B20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>0.67</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G20" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20">
+        <v>48</v>
+      </c>
+      <c r="I20">
+        <v>0.39</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" t="s">
+        <v>2749</v>
+      </c>
+      <c r="L20" t="s">
+        <v>492</v>
+      </c>
+      <c r="M20">
+        <v>386</v>
+      </c>
+      <c r="N20">
+        <v>0.43</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>492</v>
+      </c>
+      <c r="R20">
+        <v>236</v>
+      </c>
+      <c r="S20">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>0.66</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" t="s">
+        <v>2717</v>
+      </c>
+      <c r="G21" t="s">
+        <v>428</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.38</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L21" t="s">
+        <v>428</v>
+      </c>
+      <c r="M21">
+        <v>1032</v>
+      </c>
+      <c r="N21">
+        <v>0.41</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" t="s">
+        <v>1683</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>492</v>
+      </c>
+      <c r="R21">
+        <v>82</v>
+      </c>
+      <c r="S21">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B22" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>0.66</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" t="s">
+        <v>2718</v>
+      </c>
+      <c r="G22" t="s">
+        <v>492</v>
+      </c>
+      <c r="H22">
+        <v>48</v>
+      </c>
+      <c r="I22">
+        <v>0.37</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" t="s">
+        <v>2751</v>
+      </c>
+      <c r="L22" t="s">
+        <v>492</v>
+      </c>
+      <c r="M22">
+        <v>88</v>
+      </c>
+      <c r="N22">
+        <v>0.41</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" t="s">
+        <v>1566</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>492</v>
+      </c>
+      <c r="R22">
+        <v>114</v>
+      </c>
+      <c r="S22">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>0.64</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G23" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>0.37</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" t="s">
+        <v>2752</v>
+      </c>
+      <c r="L23" t="s">
+        <v>492</v>
+      </c>
+      <c r="M23">
+        <v>152</v>
+      </c>
+      <c r="N23">
+        <v>0.38</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>492</v>
+      </c>
+      <c r="R23">
+        <v>278</v>
+      </c>
+      <c r="S23">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>0.63</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G24" t="s">
+        <v>492</v>
+      </c>
+      <c r="H24">
+        <v>54</v>
+      </c>
+      <c r="I24">
+        <v>0.35</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" t="s">
+        <v>2740</v>
+      </c>
+      <c r="L24" t="s">
+        <v>428</v>
+      </c>
+      <c r="M24">
+        <v>942</v>
+      </c>
+      <c r="N24">
+        <v>0.37</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>492</v>
+      </c>
+      <c r="R24">
+        <v>184</v>
+      </c>
+      <c r="S24">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>0.63</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G25" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0.35</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L25" t="s">
+        <v>428</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.37</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>492</v>
+      </c>
+      <c r="R25">
+        <v>66</v>
+      </c>
+      <c r="S25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="8" t="s">
+        <v>2722</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="8" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>0.68</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G28" t="s">
+        <v>492</v>
+      </c>
+      <c r="H28">
+        <v>196</v>
+      </c>
+      <c r="I28">
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" t="s">
+        <v>2753</v>
+      </c>
+      <c r="L28" t="s">
+        <v>428</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.81</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>492</v>
+      </c>
+      <c r="R28">
+        <v>984</v>
+      </c>
+      <c r="S28">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>0.66</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G29" t="s">
+        <v>492</v>
+      </c>
+      <c r="H29">
+        <v>68</v>
+      </c>
+      <c r="I29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" t="s">
+        <v>2754</v>
+      </c>
+      <c r="L29" t="s">
+        <v>428</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0.8</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>492</v>
+      </c>
+      <c r="R29">
+        <v>126</v>
+      </c>
+      <c r="S29">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B30" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>0.64</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" t="s">
+        <v>2725</v>
+      </c>
+      <c r="G30" t="s">
+        <v>492</v>
+      </c>
+      <c r="H30">
+        <v>66</v>
+      </c>
+      <c r="I30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" t="s">
+        <v>2755</v>
+      </c>
+      <c r="L30" t="s">
+        <v>428</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.79</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>492</v>
+      </c>
+      <c r="R30">
+        <v>1578</v>
+      </c>
+      <c r="S30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0.62</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G31" t="s">
+        <v>492</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>0.54</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" t="s">
+        <v>329</v>
+      </c>
+      <c r="L31" t="s">
+        <v>428</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0.79</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>428</v>
+      </c>
+      <c r="R31">
+        <v>12</v>
+      </c>
+      <c r="S31">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>0.61</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G32" t="s">
+        <v>492</v>
+      </c>
+      <c r="H32">
+        <v>36</v>
+      </c>
+      <c r="I32">
+        <v>0.53</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" t="s">
+        <v>2756</v>
+      </c>
+      <c r="L32" t="s">
+        <v>428</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.79</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>428</v>
+      </c>
+      <c r="R32">
+        <v>14</v>
+      </c>
+      <c r="S32">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C33">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" t="s">
+        <v>2728</v>
+      </c>
+      <c r="G33" t="s">
+        <v>492</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>0.53</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L33" t="s">
+        <v>428</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.79</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>492</v>
+      </c>
+      <c r="R33">
+        <v>38</v>
+      </c>
+      <c r="S33">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B34" t="s">
+        <v>428</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G34" t="s">
+        <v>492</v>
+      </c>
+      <c r="H34">
+        <v>214</v>
+      </c>
+      <c r="I34">
+        <v>0.53</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" t="s">
+        <v>2758</v>
+      </c>
+      <c r="L34" t="s">
+        <v>428</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0.78</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" t="s">
+        <v>1641</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>428</v>
+      </c>
+      <c r="R34">
+        <v>40</v>
+      </c>
+      <c r="S34">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B35" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>0.6</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" t="s">
+        <v>2730</v>
+      </c>
+      <c r="G35" t="s">
+        <v>492</v>
+      </c>
+      <c r="H35">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>0.52</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" t="s">
+        <v>2759</v>
+      </c>
+      <c r="L35" t="s">
+        <v>428</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0.78</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" t="s">
+        <v>2777</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>492</v>
+      </c>
+      <c r="R35">
+        <v>234</v>
+      </c>
+      <c r="S35">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>0.59</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G36" t="s">
+        <v>492</v>
+      </c>
+      <c r="H36">
+        <v>226</v>
+      </c>
+      <c r="I36">
+        <v>0.51</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" t="s">
+        <v>2760</v>
+      </c>
+      <c r="L36" t="s">
+        <v>428</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0.78</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>428</v>
+      </c>
+      <c r="R36">
+        <v>348</v>
+      </c>
+      <c r="S36">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G37" t="s">
+        <v>492</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>0.51</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" t="s">
+        <v>2761</v>
+      </c>
+      <c r="L37" t="s">
+        <v>428</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.78</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" t="s">
+        <v>2779</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>492</v>
+      </c>
+      <c r="R37">
+        <v>132</v>
+      </c>
+      <c r="S37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="8" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="8" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="8" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" t="s">
+        <v>2732</v>
+      </c>
+      <c r="G40" t="s">
+        <v>492</v>
+      </c>
+      <c r="H40">
+        <v>64</v>
+      </c>
+      <c r="I40">
+        <v>0.75</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L40" t="s">
+        <v>492</v>
+      </c>
+      <c r="M40">
+        <v>2386</v>
+      </c>
+      <c r="N40">
+        <v>0.59</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" t="s">
+        <v>2780</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>428</v>
+      </c>
+      <c r="R40">
+        <v>410</v>
+      </c>
+      <c r="S40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G41" t="s">
+        <v>428</v>
+      </c>
+      <c r="H41">
+        <v>114</v>
+      </c>
+      <c r="I41">
+        <v>0.67</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" t="s">
+        <v>2762</v>
+      </c>
+      <c r="L41" t="s">
+        <v>492</v>
+      </c>
+      <c r="M41">
+        <v>1450</v>
+      </c>
+      <c r="N41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" t="s">
+        <v>2781</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>428</v>
+      </c>
+      <c r="R41">
+        <v>100</v>
+      </c>
+      <c r="S41">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="F42" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G42" t="s">
+        <v>492</v>
+      </c>
+      <c r="H42">
+        <v>110</v>
+      </c>
+      <c r="I42">
+        <v>0.66</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" t="s">
+        <v>2745</v>
+      </c>
+      <c r="L42" t="s">
+        <v>492</v>
+      </c>
+      <c r="M42">
+        <v>478</v>
+      </c>
+      <c r="N42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" t="s">
+        <v>2782</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>428</v>
+      </c>
+      <c r="R42">
+        <v>58</v>
+      </c>
+      <c r="S42">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G43" t="s">
+        <v>492</v>
+      </c>
+      <c r="H43">
+        <v>44</v>
+      </c>
+      <c r="I43">
+        <v>0.6</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>2763</v>
+      </c>
+      <c r="L43" t="s">
+        <v>428</v>
+      </c>
+      <c r="M43">
+        <v>1048</v>
+      </c>
+      <c r="N43">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" t="s">
+        <v>2783</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>492</v>
+      </c>
+      <c r="R43">
+        <v>114</v>
+      </c>
+      <c r="S43">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G44" t="s">
+        <v>492</v>
+      </c>
+      <c r="H44">
+        <v>74</v>
+      </c>
+      <c r="I44">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L44" t="s">
+        <v>492</v>
+      </c>
+      <c r="M44">
+        <v>502</v>
+      </c>
+      <c r="N44">
+        <v>0.54</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>428</v>
+      </c>
+      <c r="R44">
+        <v>98</v>
+      </c>
+      <c r="S44">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="F45" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G45" t="s">
+        <v>492</v>
+      </c>
+      <c r="H45">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>0.52</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L45" t="s">
+        <v>428</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0.54</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" t="s">
+        <v>2785</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>492</v>
+      </c>
+      <c r="R45">
+        <v>154</v>
+      </c>
+      <c r="S45">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="F46" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G46" t="s">
+        <v>492</v>
+      </c>
+      <c r="H46">
+        <v>68</v>
+      </c>
+      <c r="I46">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" t="s">
+        <v>2740</v>
+      </c>
+      <c r="L46" t="s">
+        <v>492</v>
+      </c>
+      <c r="M46">
+        <v>1270</v>
+      </c>
+      <c r="N46">
+        <v>0.53</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" t="s">
+        <v>2786</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>492</v>
+      </c>
+      <c r="R46">
+        <v>650</v>
+      </c>
+      <c r="S46">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G47" t="s">
+        <v>492</v>
+      </c>
+      <c r="H47">
+        <v>124</v>
+      </c>
+      <c r="I47">
+        <v>0.49</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" t="s">
+        <v>2764</v>
+      </c>
+      <c r="L47" t="s">
+        <v>492</v>
+      </c>
+      <c r="M47">
+        <v>602</v>
+      </c>
+      <c r="N47">
+        <v>0.53</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" t="s">
+        <v>2787</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>428</v>
+      </c>
+      <c r="R47">
+        <v>250</v>
+      </c>
+      <c r="S47">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" t="s">
+        <v>2735</v>
+      </c>
+      <c r="G48" t="s">
+        <v>492</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>0.48</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" t="s">
+        <v>2765</v>
+      </c>
+      <c r="L48" t="s">
+        <v>492</v>
+      </c>
+      <c r="M48">
+        <v>124</v>
+      </c>
+      <c r="N48">
+        <v>0.52</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" t="s">
+        <v>2788</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>492</v>
+      </c>
+      <c r="R48">
+        <v>424</v>
+      </c>
+      <c r="S48">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G49" t="s">
+        <v>428</v>
+      </c>
+      <c r="H49">
+        <v>38</v>
+      </c>
+      <c r="I49">
+        <v>0.47</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" t="s">
+        <v>2766</v>
+      </c>
+      <c r="L49" t="s">
+        <v>428</v>
+      </c>
+      <c r="M49">
+        <v>260</v>
+      </c>
+      <c r="N49">
+        <v>0.5</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" t="s">
+        <v>2789</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>428</v>
+      </c>
+      <c r="R49">
+        <v>84</v>
+      </c>
+      <c r="S49">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="K51" s="8" t="s">
+        <v>2767</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="8" t="s">
+        <v>2777</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+      <c r="K52" t="s">
+        <v>2768</v>
+      </c>
+      <c r="L52" t="s">
+        <v>492</v>
+      </c>
+      <c r="M52">
+        <v>328</v>
+      </c>
+      <c r="N52">
+        <v>0.5</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" t="s">
+        <v>2790</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>492</v>
+      </c>
+      <c r="R52">
+        <v>42</v>
+      </c>
+      <c r="S52">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" t="s">
+        <v>2769</v>
+      </c>
+      <c r="L53" t="s">
+        <v>492</v>
+      </c>
+      <c r="M53">
+        <v>148</v>
+      </c>
+      <c r="N53">
+        <v>0.44</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" t="s">
+        <v>2791</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>428</v>
+      </c>
+      <c r="R53">
+        <v>114</v>
+      </c>
+      <c r="S53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" t="s">
+        <v>2770</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54">
+        <v>230</v>
+      </c>
+      <c r="N54">
+        <v>0.44</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" t="s">
+        <v>2792</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>492</v>
+      </c>
+      <c r="R54">
+        <v>80</v>
+      </c>
+      <c r="S54">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="K55" t="s">
+        <v>2771</v>
+      </c>
+      <c r="L55" t="s">
+        <v>492</v>
+      </c>
+      <c r="M55">
+        <v>176</v>
+      </c>
+      <c r="N55">
+        <v>0.43</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" t="s">
+        <v>2793</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>492</v>
+      </c>
+      <c r="R55">
+        <v>176</v>
+      </c>
+      <c r="S55">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" t="s">
+        <v>403</v>
+      </c>
+      <c r="L56" t="s">
+        <v>492</v>
+      </c>
+      <c r="M56">
+        <v>80</v>
+      </c>
+      <c r="N56">
+        <v>0.41</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" t="s">
+        <v>2794</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>492</v>
+      </c>
+      <c r="R56">
+        <v>86</v>
+      </c>
+      <c r="S56">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="57" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+      <c r="K57" t="s">
+        <v>2772</v>
+      </c>
+      <c r="L57" t="s">
+        <v>492</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>0.4</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>492</v>
+      </c>
+      <c r="R57">
+        <v>210</v>
+      </c>
+      <c r="S57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+      <c r="K58" t="s">
+        <v>2773</v>
+      </c>
+      <c r="L58" t="s">
+        <v>492</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>0.4</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" t="s">
+        <v>2782</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>428</v>
+      </c>
+      <c r="R58">
+        <v>22</v>
+      </c>
+      <c r="S58">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J59" s="1"/>
+      <c r="K59" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L59" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59">
+        <v>210</v>
+      </c>
+      <c r="N59">
+        <v>0.39</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" t="s">
+        <v>2789</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>492</v>
+      </c>
+      <c r="R59">
+        <v>62</v>
+      </c>
+      <c r="S59">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+      <c r="K60" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L60" t="s">
+        <v>428</v>
+      </c>
+      <c r="M60">
+        <v>140</v>
+      </c>
+      <c r="N60">
+        <v>0.39</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" t="s">
+        <v>2795</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>428</v>
+      </c>
+      <c r="R60">
+        <v>40</v>
+      </c>
+      <c r="S60">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" t="s">
+        <v>2776</v>
+      </c>
+      <c r="L61" t="s">
+        <v>428</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>0.38</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" t="s">
+        <v>2783</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>428</v>
+      </c>
+      <c r="R61">
+        <v>38</v>
+      </c>
+      <c r="S61">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/RDFsim/measurements/measurements.xlsx
+++ b/RDFsim/measurements/measurements.xlsx
@@ -13,8 +13,7 @@
     <sheet name="Embeddings(Selected)" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="graphMeasurements" localSheetId="2">Graphs!$A$1:$E$130</definedName>
-    <definedName name="moviesGRAPHS" localSheetId="2">Graphs!$A$2:$D$12</definedName>
+    <definedName name="graphMeasurements_1" localSheetId="2">Graphs!$A$1:$E$250</definedName>
     <definedName name="moviesIndexing" localSheetId="0">'Indexing-Datasets'!$A$105:$D$205</definedName>
     <definedName name="moviesIndexing_1" localSheetId="0">'Indexing-Datasets'!$A$3:$D$103</definedName>
     <definedName name="moviesTOPK" localSheetId="1">'Embeddings(Random)'!$A$3:$F$1201</definedName>
@@ -50,17 +49,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="moviesGRAPHS" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\tmp\moviesGRAPHS.txt" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="moviesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="moviesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesIndexing.txt" comma="1" semicolon="1">
       <textFields count="3">
         <textField/>
@@ -69,7 +58,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="moviesIndexing1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="moviesIndexing1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -78,7 +67,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="moviesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="moviesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -88,7 +77,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="moviesTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="moviesTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\moviesTOPK.txt" tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -98,7 +87,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="philosophersIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" name="philosophersIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\philosophersIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -107,7 +96,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="philosophersTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" name="philosophersTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\philosophersTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -117,7 +106,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="philosophersTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" name="philosophersTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\philosophersTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -127,7 +116,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="programmingLangsIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" name="programmingLangsIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\programmingLangsIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -136,7 +125,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="programmingLangsTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" name="programmingLangsTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\programmingLangsTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -146,7 +135,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="videoGamesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" name="videoGamesIndexing" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\videoGamesIndexing.txt" comma="1">
       <textFields count="3">
         <textField/>
@@ -155,7 +144,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="videoGamesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" name="videoGamesTOPK" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\videoGamesTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -165,7 +154,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="videoGamesTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" name="videoGamesTOPK1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\tmp\videoGamesTOPK.txt" comma="1">
       <textFields count="4">
         <textField/>
@@ -179,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8108" uniqueCount="2814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8128" uniqueCount="2828">
   <si>
     <t>Movies</t>
   </si>
@@ -8621,6 +8610,48 @@
   </si>
   <si>
     <t>http://dbpedia.org/resource/Perl_package_manager</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Treacherous</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Namiya</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Fluteman</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/The_Night_Coachman</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Beginner's_Luck_(2001_film)</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Space_M+A+X</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/1939_Nebraska_vs._Kansas_State_football_game</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/King_of_Fighters_R-1</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Chess</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Magic_Realm</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/P*</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Sinclair_BASIC</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Assembly_Language</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Portable_Standard_Lisp</t>
   </si>
 </sst>
 </file>
@@ -8735,59 +8766,55 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersIndexing" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsIndexing" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesGRAPHS" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsTOPK" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsTOPK" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesIndexing" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersIndexing" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="programmingLangsIndexing" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesIndexing" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesIndexing" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="videoGamesTOPK" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="philosophersTOPK" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="moviesTOPK" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="graphMeasurements" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="graphMeasurements_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55431,18 +55458,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -55472,16 +55503,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="C3">
         <v>0.34</v>
       </c>
       <c r="D3">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="E3">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -55489,16 +55520,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="C4">
-        <v>1.1299999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D4">
-        <v>3.81</v>
+        <v>3.25</v>
       </c>
       <c r="E4">
-        <v>10.41</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -55506,16 +55537,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C5">
-        <v>1.73</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D5">
-        <v>10.25</v>
+        <v>9.15</v>
       </c>
       <c r="E5">
-        <v>46.15</v>
+        <v>43.41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -55526,13 +55557,13 @@
         <v>0.17</v>
       </c>
       <c r="C6">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="D6">
-        <v>19.57</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="E6">
-        <v>132.08000000000001</v>
+        <v>130.34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -55557,16 +55588,16 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C9">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="D9">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="E9">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -55574,16 +55605,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C10">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="D10">
-        <v>0.85</v>
+        <v>1.22</v>
       </c>
       <c r="E10">
-        <v>2.09</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -55591,16 +55622,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C11">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="D11">
-        <v>1.96</v>
+        <v>2.19</v>
       </c>
       <c r="E11">
-        <v>4.38</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -55608,16 +55639,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C12">
-        <v>0.56000000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
-        <v>3.72</v>
+        <v>4.17</v>
       </c>
       <c r="E12">
-        <v>9.26</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -55645,13 +55676,13 @@
         <v>0.08</v>
       </c>
       <c r="C15">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D15">
         <v>0.25</v>
       </c>
       <c r="E15">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -55662,13 +55693,13 @@
         <v>0.08</v>
       </c>
       <c r="C16">
-        <v>0.47</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D16">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="E16">
-        <v>13.05</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -55679,13 +55710,13 @@
         <v>0.08</v>
       </c>
       <c r="C17">
-        <v>1.1299999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="D17">
-        <v>13.33</v>
+        <v>12.4</v>
       </c>
       <c r="E17">
-        <v>107.48</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -55693,16 +55724,16 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="C18">
-        <v>1.7</v>
+        <v>2.64</v>
       </c>
       <c r="D18">
-        <v>28.06</v>
+        <v>41.82</v>
       </c>
       <c r="E18">
-        <v>275.93</v>
+        <v>382.79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -55727,16 +55758,16 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="C21">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="D21">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E21">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -55744,16 +55775,16 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C22">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="D22">
-        <v>0.64</v>
+        <v>1.02</v>
       </c>
       <c r="E22">
-        <v>0.98</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -55761,16 +55792,16 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="C23">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="D23">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="E23">
-        <v>1.2</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -55781,13 +55812,13 @@
         <v>0.04</v>
       </c>
       <c r="C24">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="D24">
-        <v>2.59</v>
+        <v>3.19</v>
       </c>
       <c r="E24">
-        <v>7.26</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -55812,16 +55843,16 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C27">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="D27">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E27">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -55829,16 +55860,16 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="C28">
-        <v>0.73</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D28">
-        <v>4.17</v>
+        <v>4.34</v>
       </c>
       <c r="E28">
-        <v>13.84</v>
+        <v>18.829999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -55846,16 +55877,16 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="C29">
-        <v>0.97</v>
+        <v>1.27</v>
       </c>
       <c r="D29">
-        <v>9.84</v>
+        <v>11.34</v>
       </c>
       <c r="E29">
-        <v>63.13</v>
+        <v>102.84</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -55863,1102 +55894,1165 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="C30">
-        <v>1.52</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D30">
-        <v>24.6</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="E30">
-        <v>150.07</v>
+        <v>210.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0.49</v>
+      </c>
+      <c r="C33">
+        <v>0.85</v>
+      </c>
+      <c r="D33">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <v>0.69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2802</v>
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>1.35</v>
+      </c>
+      <c r="C34">
+        <v>2.37</v>
+      </c>
+      <c r="D34">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E34">
+        <v>11.22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1473</v>
+      <c r="A35">
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3.13</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>10.23</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>0.36</v>
+      </c>
+      <c r="C36">
+        <v>3.08</v>
+      </c>
+      <c r="D36">
+        <v>13.5</v>
+      </c>
+      <c r="E36">
+        <v>50.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C39">
+        <v>0.08</v>
+      </c>
+      <c r="D39">
+        <v>0.3</v>
+      </c>
+      <c r="E39">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>0.02</v>
+      </c>
+      <c r="C40">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D40">
+        <v>3.64</v>
+      </c>
+      <c r="E40">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
         <v>0.01</v>
       </c>
-      <c r="D39">
-        <v>0.02</v>
-      </c>
-      <c r="E39">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
       <c r="C41">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>6.36</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0.01</v>
+      </c>
+      <c r="C42">
+        <v>1.08</v>
+      </c>
+      <c r="D42">
+        <v>11.11</v>
+      </c>
+      <c r="E42">
+        <v>40.119999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0.01</v>
-      </c>
-      <c r="E43">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0.12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C45">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D45">
+        <v>0.17</v>
+      </c>
+      <c r="E45">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
         <v>0.06</v>
       </c>
-      <c r="E45">
-        <v>0.24</v>
+      <c r="C46">
+        <v>0.74</v>
+      </c>
+      <c r="D46">
+        <v>3.02</v>
+      </c>
+      <c r="E46">
+        <v>9.82</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>188</v>
+      <c r="A47">
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>12.37</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>31.07</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C48">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D48">
+        <v>17.82</v>
+      </c>
+      <c r="E48">
+        <v>68.680000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B50">
         <v>1</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0.01</v>
-      </c>
-      <c r="E49">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
       <c r="C50">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>0.05</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C51">
-        <v>0.01</v>
+        <v>0.46</v>
       </c>
       <c r="D51">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="E51">
-        <v>0.08</v>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C52">
+        <v>1.68</v>
+      </c>
+      <c r="D52">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E52">
+        <v>5.92</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1578</v>
+      <c r="A53">
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>8.65</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C54">
+        <v>3.92</v>
+      </c>
+      <c r="D54">
+        <v>13.18</v>
+      </c>
+      <c r="E54">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B56">
         <v>1</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>5</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0.01</v>
-      </c>
-      <c r="D55">
-        <v>0.02</v>
-      </c>
-      <c r="E55">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
       <c r="C56">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>0.04</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>7.0000000000000007E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C57">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
       <c r="D57">
+        <v>0.38</v>
+      </c>
+      <c r="E57">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>2.96</v>
+      </c>
+      <c r="E58">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
         <v>0.06</v>
       </c>
-      <c r="E57">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
       <c r="C59">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>6.81</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>55.77</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>0.06</v>
+      </c>
+      <c r="C60">
+        <v>1.31</v>
+      </c>
+      <c r="D60">
+        <v>20.74</v>
+      </c>
+      <c r="E60">
+        <v>189.98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B65">
         <v>1</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>5</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="E67">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>10</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>0.01</v>
       </c>
-      <c r="E62">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>15</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0.02</v>
-      </c>
-      <c r="E63">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
       <c r="D68">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.01</v>
+      </c>
+      <c r="D69">
+        <v>0.03</v>
+      </c>
+      <c r="E69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B71">
         <v>1</v>
       </c>
-      <c r="B69">
-        <v>0.04</v>
-      </c>
-      <c r="C69">
-        <v>0.09</v>
-      </c>
-      <c r="D69">
-        <v>0.08</v>
-      </c>
-      <c r="E69">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>0.04</v>
-      </c>
-      <c r="C70">
-        <v>0.22</v>
-      </c>
-      <c r="D70">
-        <v>0.59</v>
-      </c>
-      <c r="E70">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>10</v>
-      </c>
-      <c r="B71">
-        <v>0.04</v>
-      </c>
       <c r="C71">
-        <v>0.37</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>12.32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>30.78</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0.01</v>
+      </c>
+      <c r="D73">
+        <v>0.01</v>
+      </c>
+      <c r="E73">
+        <v>0.05</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>2805</v>
+      <c r="A74">
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0.01</v>
+      </c>
+      <c r="D75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="B75">
-        <v>0.02</v>
-      </c>
-      <c r="C75">
-        <v>0.06</v>
-      </c>
-      <c r="D75">
-        <v>0.09</v>
-      </c>
-      <c r="E75">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <v>0.02</v>
-      </c>
-      <c r="C76">
-        <v>0.17</v>
-      </c>
-      <c r="D76">
-        <v>0.61</v>
-      </c>
-      <c r="E76">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>10</v>
-      </c>
-      <c r="B77">
-        <v>0.02</v>
-      </c>
       <c r="C77">
-        <v>0.28000000000000003</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1.49</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>6.92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>22.98</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0.01</v>
+      </c>
+      <c r="E79">
+        <v>0.03</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>2806</v>
+      <c r="A80">
+        <v>10</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.01</v>
+      </c>
+      <c r="D81">
+        <v>0.05</v>
+      </c>
+      <c r="E81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B83">
         <v>1</v>
       </c>
-      <c r="B81">
-        <v>0.03</v>
-      </c>
-      <c r="C81">
-        <v>0.06</v>
-      </c>
-      <c r="D81">
-        <v>0.12</v>
-      </c>
-      <c r="E81">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>5</v>
-      </c>
-      <c r="B82">
-        <v>0.04</v>
-      </c>
-      <c r="C82">
-        <v>0.35</v>
-      </c>
-      <c r="D82">
-        <v>0.44</v>
-      </c>
-      <c r="E82">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>10</v>
-      </c>
-      <c r="B83">
-        <v>0.02</v>
-      </c>
       <c r="C83">
-        <v>0.37</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>1.1200000000000001</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>4.59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0.01</v>
+      </c>
+      <c r="D85">
         <v>0.02</v>
       </c>
-      <c r="C84">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D84">
-        <v>2.98</v>
-      </c>
-      <c r="E84">
-        <v>13.83</v>
+      <c r="E85">
+        <v>0.04</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>2807</v>
+      <c r="A86">
+        <v>10</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0.02</v>
+      </c>
+      <c r="D87">
+        <v>0.04</v>
+      </c>
+      <c r="E87">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B89">
         <v>1</v>
       </c>
-      <c r="B87">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C87">
-        <v>0.18</v>
-      </c>
-      <c r="D87">
-        <v>0.24</v>
-      </c>
-      <c r="E87">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>5</v>
-      </c>
-      <c r="B88">
-        <v>0.09</v>
-      </c>
-      <c r="C88">
-        <v>0.47</v>
-      </c>
-      <c r="D88">
-        <v>1.06</v>
-      </c>
-      <c r="E88">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>10</v>
-      </c>
-      <c r="B89">
-        <v>0.08</v>
-      </c>
       <c r="C89">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>7.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>32.51</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>2808</v>
+      <c r="A92">
+        <v>10</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0.02</v>
+      </c>
+      <c r="E93">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B95">
         <v>1</v>
       </c>
-      <c r="B93">
-        <v>0.01</v>
-      </c>
-      <c r="C93">
-        <v>0.04</v>
-      </c>
-      <c r="D93">
-        <v>0.03</v>
-      </c>
-      <c r="E93">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>5</v>
-      </c>
-      <c r="B94">
-        <v>0.03</v>
-      </c>
-      <c r="C94">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D94">
-        <v>0.24</v>
-      </c>
-      <c r="E94">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>10</v>
-      </c>
-      <c r="B95">
-        <v>0.02</v>
-      </c>
       <c r="C95">
-        <v>0.09</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>0.48</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>1.47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0.01</v>
+      </c>
+      <c r="D97">
+        <v>0.01</v>
+      </c>
+      <c r="E97">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0.01</v>
+      </c>
+      <c r="D98">
+        <v>0.03</v>
+      </c>
+      <c r="E98">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>15</v>
       </c>
-      <c r="B96">
-        <v>0.02</v>
-      </c>
-      <c r="C96">
-        <v>0.12</v>
-      </c>
-      <c r="D96">
-        <v>0.71</v>
-      </c>
-      <c r="E96">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B100">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0.01</v>
+      </c>
+      <c r="D99">
+        <v>0.05</v>
+      </c>
+      <c r="E99">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101">
         <v>1</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>2</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>3</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
         <v>0.01</v>
       </c>
-      <c r="D103">
-        <v>0.04</v>
-      </c>
       <c r="E103">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>10</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0.03</v>
+      </c>
+      <c r="E104">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>15</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
         <v>0.01</v>
       </c>
-      <c r="D104">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E104">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B106">
+      <c r="D105">
+        <v>0.05</v>
+      </c>
+      <c r="E105">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
         <v>1</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>2</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>3</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
         <v>0.01</v>
       </c>
-      <c r="D109">
-        <v>0.05</v>
-      </c>
       <c r="E109">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0.01</v>
+      </c>
+      <c r="D110">
+        <v>0.02</v>
+      </c>
+      <c r="E110">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>15</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0.02</v>
-      </c>
-      <c r="D110">
-        <v>0.1</v>
-      </c>
-      <c r="E110">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B112">
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0.01</v>
+      </c>
+      <c r="D111">
+        <v>0.04</v>
+      </c>
+      <c r="E111">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113">
         <v>1</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>2</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>3</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0.01</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -56967,66 +57061,66 @@
         <v>0.01</v>
       </c>
       <c r="D115">
+        <v>0.01</v>
+      </c>
+      <c r="E115">
         <v>0.04</v>
-      </c>
-      <c r="E115">
-        <v>0.12</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0.01</v>
+      </c>
+      <c r="D116">
+        <v>0.04</v>
+      </c>
+      <c r="E116">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>15</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0.02</v>
-      </c>
-      <c r="D116">
-        <v>0.09</v>
-      </c>
-      <c r="E116">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B118">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0.01</v>
+      </c>
+      <c r="D117">
+        <v>0.06</v>
+      </c>
+      <c r="E117">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119">
         <v>1</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>2</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <v>3</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -57035,32 +57129,32 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
         <v>0.01</v>
       </c>
-      <c r="D121">
-        <v>0.08</v>
-      </c>
       <c r="E121">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -57069,95 +57163,1732 @@
         <v>0.01</v>
       </c>
       <c r="D122">
+        <v>0.04</v>
+      </c>
+      <c r="E122">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0.01</v>
+      </c>
+      <c r="D123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E123">
         <v>0.15</v>
       </c>
-      <c r="E122">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>0.05</v>
+      </c>
+      <c r="C129">
+        <v>0.1</v>
+      </c>
+      <c r="D129">
+        <v>0.1</v>
+      </c>
+      <c r="E129">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>0.05</v>
+      </c>
+      <c r="C130">
+        <v>0.22</v>
+      </c>
+      <c r="D130">
+        <v>0.62</v>
+      </c>
+      <c r="E130">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131">
+        <v>0.09</v>
+      </c>
+      <c r="C131">
+        <v>0.53</v>
+      </c>
+      <c r="D131">
+        <v>2.97</v>
+      </c>
+      <c r="E131">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>15</v>
+      </c>
+      <c r="B132">
+        <v>0.09</v>
+      </c>
+      <c r="C132">
+        <v>0.74</v>
+      </c>
+      <c r="D132">
+        <v>3.63</v>
+      </c>
+      <c r="E132">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>0.02</v>
+      </c>
+      <c r="C135">
+        <v>0.06</v>
+      </c>
+      <c r="D135">
+        <v>0.09</v>
+      </c>
+      <c r="E135">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>0.02</v>
+      </c>
+      <c r="C136">
+        <v>0.15</v>
+      </c>
+      <c r="D136">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E136">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137">
+        <v>0.02</v>
+      </c>
+      <c r="C137">
+        <v>0.22</v>
+      </c>
+      <c r="D137">
+        <v>1.4</v>
+      </c>
+      <c r="E137">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="B138">
+        <v>0.02</v>
+      </c>
+      <c r="C138">
+        <v>0.31</v>
+      </c>
+      <c r="D138">
+        <v>2.86</v>
+      </c>
+      <c r="E138">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>0.02</v>
+      </c>
+      <c r="C141">
+        <v>0.05</v>
+      </c>
+      <c r="D141">
+        <v>0.08</v>
+      </c>
+      <c r="E141">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>0.02</v>
+      </c>
+      <c r="C142">
+        <v>0.2</v>
+      </c>
+      <c r="D142">
+        <v>0.27</v>
+      </c>
+      <c r="E142">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143">
+        <v>0.02</v>
+      </c>
+      <c r="C143">
+        <v>0.33</v>
+      </c>
+      <c r="D143">
+        <v>1.22</v>
+      </c>
+      <c r="E143">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>15</v>
+      </c>
+      <c r="B144">
+        <v>0.02</v>
+      </c>
+      <c r="C144">
+        <v>0.43</v>
+      </c>
+      <c r="D144">
+        <v>2.63</v>
+      </c>
+      <c r="E144">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C147">
+        <v>0.15</v>
+      </c>
+      <c r="D147">
+        <v>0.22</v>
+      </c>
+      <c r="E147">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148">
+        <v>0.08</v>
+      </c>
+      <c r="C148">
+        <v>0.44</v>
+      </c>
+      <c r="D148">
+        <v>1.01</v>
+      </c>
+      <c r="E148">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>10</v>
+      </c>
+      <c r="B149">
+        <v>0.08</v>
+      </c>
+      <c r="C149">
+        <v>0.69</v>
+      </c>
+      <c r="D149">
+        <v>2.13</v>
+      </c>
+      <c r="E149">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C150">
+        <v>0.92</v>
+      </c>
+      <c r="D150">
+        <v>4.74</v>
+      </c>
+      <c r="E150">
+        <v>28.63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>0.02</v>
+      </c>
+      <c r="C153">
+        <v>0.03</v>
+      </c>
+      <c r="D153">
+        <v>0.03</v>
+      </c>
+      <c r="E153">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>5</v>
+      </c>
+      <c r="B154">
+        <v>0.02</v>
+      </c>
+      <c r="C154">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D154">
+        <v>0.24</v>
+      </c>
+      <c r="E154">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>0.02</v>
+      </c>
+      <c r="C155">
+        <v>0.1</v>
+      </c>
+      <c r="D155">
+        <v>0.45</v>
+      </c>
+      <c r="E155">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>0.02</v>
+      </c>
+      <c r="C156">
+        <v>0.12</v>
+      </c>
+      <c r="D156">
+        <v>0.71</v>
+      </c>
+      <c r="E156">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>0.04</v>
+      </c>
+      <c r="C159">
+        <v>0.05</v>
+      </c>
+      <c r="D159">
+        <v>0.12</v>
+      </c>
+      <c r="E159">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>5</v>
+      </c>
+      <c r="B160">
+        <v>0.05</v>
+      </c>
+      <c r="C160">
+        <v>0.2</v>
+      </c>
+      <c r="D160">
+        <v>0.48</v>
+      </c>
+      <c r="E160">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>10</v>
+      </c>
+      <c r="B161">
+        <v>0.05</v>
+      </c>
+      <c r="C161">
+        <v>0.36</v>
+      </c>
+      <c r="D161">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E161">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>15</v>
+      </c>
+      <c r="B162">
+        <v>0.04</v>
+      </c>
+      <c r="C162">
+        <v>0.38</v>
+      </c>
+      <c r="D162">
+        <v>3.24</v>
+      </c>
+      <c r="E162">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0.02</v>
+      </c>
+      <c r="D165">
+        <v>0.02</v>
+      </c>
+      <c r="E165">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0.09</v>
+      </c>
+      <c r="D166">
+        <v>0.42</v>
+      </c>
+      <c r="E166">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0.22</v>
+      </c>
+      <c r="D167">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E167">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>15</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0.31</v>
+      </c>
+      <c r="D168">
+        <v>1.66</v>
+      </c>
+      <c r="E168">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>0.01</v>
+      </c>
+      <c r="C171">
+        <v>0.02</v>
+      </c>
+      <c r="D171">
+        <v>0.02</v>
+      </c>
+      <c r="E171">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>0.01</v>
+      </c>
+      <c r="C172">
+        <v>0.05</v>
+      </c>
+      <c r="D172">
+        <v>0.24</v>
+      </c>
+      <c r="E172">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>10</v>
+      </c>
+      <c r="B173">
+        <v>0.01</v>
+      </c>
+      <c r="C173">
+        <v>0.23</v>
+      </c>
+      <c r="D173">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E173">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>15</v>
+      </c>
+      <c r="B174">
+        <v>0.01</v>
+      </c>
+      <c r="C174">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D174">
+        <v>1.78</v>
+      </c>
+      <c r="E174">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>0.02</v>
+      </c>
+      <c r="C177">
+        <v>0.03</v>
+      </c>
+      <c r="D177">
+        <v>0.04</v>
+      </c>
+      <c r="E177">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178">
+        <v>0.03</v>
+      </c>
+      <c r="C178">
+        <v>0.12</v>
+      </c>
+      <c r="D178">
+        <v>0.32</v>
+      </c>
+      <c r="E178">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>10</v>
+      </c>
+      <c r="B179">
+        <v>0.02</v>
+      </c>
+      <c r="C179">
+        <v>0.19</v>
+      </c>
+      <c r="D179">
+        <v>1.17</v>
+      </c>
+      <c r="E179">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>15</v>
+      </c>
+      <c r="B180">
+        <v>0.02</v>
+      </c>
+      <c r="C180">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D180">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E180">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>0.01</v>
+      </c>
+      <c r="C183">
+        <v>0.04</v>
+      </c>
+      <c r="D183">
+        <v>0.04</v>
+      </c>
+      <c r="E183">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>5</v>
+      </c>
+      <c r="B184">
+        <v>0.01</v>
+      </c>
+      <c r="C184">
+        <v>0.09</v>
+      </c>
+      <c r="D184">
+        <v>0.49</v>
+      </c>
+      <c r="E184">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>10</v>
+      </c>
+      <c r="B185">
+        <v>0.01</v>
+      </c>
+      <c r="C185">
+        <v>0.2</v>
+      </c>
+      <c r="D185">
+        <v>1.61</v>
+      </c>
+      <c r="E185">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>15</v>
+      </c>
+      <c r="B186">
+        <v>0.01</v>
+      </c>
+      <c r="C186">
+        <v>0.42</v>
+      </c>
+      <c r="D186">
+        <v>3.55</v>
+      </c>
+      <c r="E186">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>5</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0.01</v>
+      </c>
+      <c r="D192">
+        <v>0.02</v>
+      </c>
+      <c r="E192">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>10</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0.01</v>
+      </c>
+      <c r="D193">
+        <v>0.04</v>
+      </c>
+      <c r="E193">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>15</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0.01</v>
+      </c>
+      <c r="D194">
+        <v>0.06</v>
+      </c>
+      <c r="E194">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0.01</v>
+      </c>
+      <c r="D198">
+        <v>0.02</v>
+      </c>
+      <c r="E198">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>10</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0.01</v>
+      </c>
+      <c r="D199">
+        <v>0.05</v>
+      </c>
+      <c r="E199">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>15</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0.01</v>
+      </c>
+      <c r="D200">
+        <v>0.09</v>
+      </c>
+      <c r="E200">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0.02</v>
+      </c>
+      <c r="E204">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>10</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0.01</v>
+      </c>
+      <c r="D205">
+        <v>0.04</v>
+      </c>
+      <c r="E205">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>15</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0.02</v>
+      </c>
+      <c r="D206">
+        <v>0.09</v>
+      </c>
+      <c r="E206">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0.01</v>
+      </c>
+      <c r="D210">
+        <v>0.03</v>
+      </c>
+      <c r="E210">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0.01</v>
+      </c>
+      <c r="D211">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E211">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>15</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0.01</v>
+      </c>
+      <c r="D212">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E212">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>2813</v>
       </c>
-      <c r="B124">
+      <c r="B214">
         <v>1</v>
       </c>
-      <c r="C124">
+      <c r="C214">
         <v>2</v>
       </c>
-      <c r="D124">
+      <c r="D214">
         <v>3</v>
       </c>
-      <c r="E124">
+      <c r="E214">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>1</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>5</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
         <v>0.01</v>
       </c>
-      <c r="D126">
+      <c r="D216">
+        <v>0.02</v>
+      </c>
+      <c r="E216">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>10</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0.01</v>
+      </c>
+      <c r="D217">
+        <v>0.05</v>
+      </c>
+      <c r="E217">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>15</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0.01</v>
+      </c>
+      <c r="D218">
+        <v>0.09</v>
+      </c>
+      <c r="E218">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0.01</v>
+      </c>
+      <c r="D222">
+        <v>0.01</v>
+      </c>
+      <c r="E222">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0.01</v>
+      </c>
+      <c r="D223">
+        <v>0.04</v>
+      </c>
+      <c r="E223">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>15</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0.01</v>
+      </c>
+      <c r="D224">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E224">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>336</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0.01</v>
+      </c>
+      <c r="E228">
         <v>0.03</v>
       </c>
-      <c r="E126">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>10</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0.01</v>
+      </c>
+      <c r="D229">
+        <v>0.04</v>
+      </c>
+      <c r="E229">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>15</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0.02</v>
+      </c>
+      <c r="D230">
+        <v>0.06</v>
+      </c>
+      <c r="E230">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0.01</v>
+      </c>
+      <c r="D234">
+        <v>0.02</v>
+      </c>
+      <c r="E234">
         <v>0.05</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>10</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
         <v>0.01</v>
       </c>
-      <c r="D127">
-        <v>0.05</v>
-      </c>
-      <c r="E127">
+      <c r="D235">
+        <v>0.04</v>
+      </c>
+      <c r="E235">
         <v>0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>15</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
         <v>0.01</v>
       </c>
-      <c r="D128">
+      <c r="D236">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E236">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="E238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0.01</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0.01</v>
+      </c>
+      <c r="D240">
+        <v>0.01</v>
+      </c>
+      <c r="E240">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>10</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0.01</v>
+      </c>
+      <c r="D241">
+        <v>0.03</v>
+      </c>
+      <c r="E241">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>15</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0.02</v>
+      </c>
+      <c r="D242">
+        <v>0.06</v>
+      </c>
+      <c r="E242">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0.01</v>
+      </c>
+      <c r="D246">
+        <v>0.02</v>
+      </c>
+      <c r="E246">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>10</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0.01</v>
+      </c>
+      <c r="D247">
+        <v>0.03</v>
+      </c>
+      <c r="E247">
         <v>0.1</v>
       </c>
-      <c r="E128">
-        <v>0.32</v>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>15</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0.02</v>
+      </c>
+      <c r="D248">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E248">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
